--- a/LF/lf_pretas_tas_2_participant.xlsx
+++ b/LF/lf_pretas_tas_2_participant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\generic-espen-collect-form\LF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\LF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD3CA5-8FFF-4D96-BE20-4E84D7E9B7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -184,9 +185,6 @@
     <t>c_end</t>
   </si>
   <si>
-    <t>p_recorderID</t>
-  </si>
-  <si>
     <t>p_eu_code</t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Select your cluster</t>
   </si>
   <si>
-    <t>p_clusterID</t>
-  </si>
-  <si>
     <t>Select Cluster code</t>
   </si>
   <si>
@@ -229,21 +224,12 @@
     <t>How many years has the respondent lived in the area?</t>
   </si>
   <si>
-    <t>p_IDMethod</t>
-  </si>
-  <si>
     <t>How will the individual's unique ID be generated?</t>
   </si>
   <si>
-    <t>p_BarcodeID</t>
-  </si>
-  <si>
     <t>Scan barcode now</t>
   </si>
   <si>
-    <t>p_GenerateID</t>
-  </si>
-  <si>
     <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered, including OV16 RDT and Dry Blood Spot tests</t>
   </si>
   <si>
@@ -364,12 +350,6 @@
     <t>. &lt;= ${p_age_yrs}</t>
   </si>
   <si>
-    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_IDMethod} = 'ID_generation' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
     <t>2. Pre TAS FL Form Participants</t>
   </si>
   <si>
@@ -377,12 +357,33 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>p_recorder_id</t>
+  </si>
+  <si>
+    <t>p_cluster_id</t>
+  </si>
+  <si>
+    <t>p_id_method</t>
+  </si>
+  <si>
+    <t>${p_id_method} = 'Scanner' and ${p_consent} = 'Yes'</t>
+  </si>
+  <si>
+    <t>${p_id_method} = 'ID_generation' and ${p_consent} = 'Yes'</t>
+  </si>
+  <si>
+    <t>p_barcode_id</t>
+  </si>
+  <si>
+    <t>p_generate_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -816,14 +817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -901,7 +902,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -928,7 +929,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -938,14 +939,14 @@
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -954,7 +955,7 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -965,14 +966,14 @@
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -982,12 +983,12 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -995,14 +996,14 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1012,7 +1013,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1023,14 +1024,14 @@
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1040,7 +1041,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1048,28 +1049,28 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1080,32 +1081,32 @@
         <v>26</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1116,32 +1117,32 @@
         <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1149,46 +1150,46 @@
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F10" s="11"/>
       <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1196,40 +1197,40 @@
         <v>37</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F13" s="11"/>
       <c r="K13" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M13" s="4"/>
     </row>
@@ -1238,14 +1239,14 @@
         <v>44</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -1276,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1418,62 +1419,62 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1481,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1511,10 +1512,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>20200402</v>
